--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/29,07,25 Ост КИ филиалы/дв 29,07,25 бррсч ост ки от Холодова.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/29,07,25 Ост КИ филиалы/дв 29,07,25 бррсч ост ки от Холодова.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\29,07,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\07,25\29,07,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E681B068-0CCD-47A2-9E48-6713D49F42C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3233D6E-8779-43F1-A7C4-6CEE32EAF794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="173">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -536,6 +536,21 @@
   <si>
     <t>02,08,</t>
   </si>
+  <si>
+    <t>Обжора</t>
+  </si>
+  <si>
+    <t>Мкд Трейд / Обжора</t>
+  </si>
+  <si>
+    <t>Обжора (дозаказ)</t>
+  </si>
+  <si>
+    <t>50+150</t>
+  </si>
+  <si>
+    <t>Обжора 150 (дозаказ)</t>
+  </si>
 </sst>
 </file>
 
@@ -590,7 +605,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +654,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -668,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -690,6 +711,7 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
@@ -999,7 +1021,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomRight" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1390,11 +1412,11 @@
       </c>
       <c r="T5" s="6">
         <f t="shared" si="0"/>
-        <v>3778</v>
+        <v>4128</v>
       </c>
       <c r="U5" s="6">
         <f>SUM(U7:U500)</f>
-        <v>2420</v>
+        <v>2570</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -1442,7 +1464,7 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="6">
         <f>SUM(AJ6:AJ500)</f>
-        <v>1679.9199999999998</v>
+        <v>1767.9199999999998</v>
       </c>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
@@ -2759,17 +2781,19 @@
         <v>21.4</v>
       </c>
       <c r="S17" s="12"/>
-      <c r="T17" s="12">
-        <f t="shared" ref="T17:T19" si="9">U17</f>
-        <v>50</v>
-      </c>
-      <c r="U17" s="12">
-        <v>50</v>
-      </c>
-      <c r="V17" s="2"/>
+      <c r="T17" s="21">
+        <f>200</f>
+        <v>200</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="W17" s="2">
         <f t="shared" si="6"/>
-        <v>20.514018691588788</v>
+        <v>27.523364485981311</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="4"/>
@@ -2805,10 +2829,12 @@
       <c r="AH17" s="2">
         <v>19</v>
       </c>
-      <c r="AI17" s="2"/>
+      <c r="AI17" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="AJ17" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
@@ -2878,7 +2904,7 @@
       </c>
       <c r="S18" s="12"/>
       <c r="T18" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="T17:T19" si="9">U18</f>
         <v>70</v>
       </c>
       <c r="U18" s="12">
@@ -6615,15 +6641,18 @@
         <v>81.599999999999994</v>
       </c>
       <c r="S51" s="12"/>
-      <c r="T51" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="12"/>
-      <c r="V51" s="2"/>
+      <c r="T51" s="21">
+        <v>200</v>
+      </c>
+      <c r="U51" s="21">
+        <v>200</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="W51" s="2">
         <f t="shared" si="6"/>
-        <v>18.419117647058826</v>
+        <v>20.870098039215687</v>
       </c>
       <c r="X51" s="2">
         <f t="shared" si="15"/>
@@ -6660,11 +6689,11 @@
         <v>117.2</v>
       </c>
       <c r="AI51" s="2" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="AJ51" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
